--- a/params.xlsx
+++ b/params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macristina.perez\Documents\GitHub\HW4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5401D40-6E43-4DA0-9FC1-B158EA396C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FC0958-C965-4AC1-8402-6AB84EB62AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B26A65D8-A109-4224-AF12-E1D16D12ED4A}"/>
   </bookViews>
@@ -154,7 +154,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -243,7 +243,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EA9DC2-B25E-47B5-AD48-C7CEF8B25A88}">
   <dimension ref="B3:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
